--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_184.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_184.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.8, 22.56)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(59.5, 68.12)]</t>
+          <t>[('0:00:11.820000', '0:00:16.400000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3625</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06222222222222222</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab', 'Ab'], ['Eb', 'Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab', 'Ab'], ['Eb', 'Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:33.220000', '0:00:37.670000'), ('0:00:28.790000', '0:00:33.220000'), ('0:00:24.290000', '0:00:29.900000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:32.530000', '0:01:34.430000'), ('0:00:18.470000', '0:00:20.840000'), ('0:00:18.070000', '0:00:20.040000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0515704584040747</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_67</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05971387103462575</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>[['Eb', 'Eb', 'Ab:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.13, 15.8)]</t>
+          <t>[['F', 'F', 'Bb:7', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(51.641107, 57.139232)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:09.150000', '0:00:20.110000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:09.880000', '0:00:15.540000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1719298245614035</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11875</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'F#/4', 'B']]</t>
+          <t>[['A:maj/9', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.199024, 23.115487)]</t>
+          <t>[['Db', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(123.652, 131.396)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:22.599387', '0:00:29.576984')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:21.879569', '0:00:24.631133')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3', 'F', 'C/5', 'F/3', 'G/3', 'C']]</t>
-        </is>
+          <t>jaah_16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_56</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1313164893617021</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F', 'C', 'F', 'G', 'A']]</t>
+          <t>[['A:maj6', 'A:maj6', 'A:maj6', 'A:maj6', 'A:maj6'], ['F#:min7', 'F#:min7', 'F#:min7', 'F#:min7', 'E:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(133.449451, 138.80365)]</t>
+          <t>[['Ab:maj6', 'Ab:maj6', 'Ab:maj6', 'Ab:maj6', 'Ab:maj6'], ['Ab:maj6', 'Ab:maj6', 'Ab:maj6', 'Ab:maj6', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.17907, 34.801473)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:02:22.310000', '0:02:27.620000'), ('0:00:05.620000', '0:00:08.970000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:41.310000', '0:00:46.990000'), ('0:01:09.460000', '0:01:14.790000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1145161290322581</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A', 'F#:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.24229, 29.605374)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.722562, 51.74043)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:48', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(33.0, 48.22)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(49.28, 53.94)]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.24, 15.78)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:20.580000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1199186991869919</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.939, 3.682)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2022988505747126</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(66.2, 70.02)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(62.36, 66.92)]</t>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(38.18, 51.98), (105.0, 108.24)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5), (61.32, 63.7)]</t>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1478163493840985</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(65.103514, 72.358823)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(46.016712, 65.695623)]</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(66.06, 68.18)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(71.56, 80.0)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'E/6'], ['A', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/6'], ['F/5', 'C', 'C/7']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(80.022335, 82.80873), (16.759569, 29.414444)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(69.901, 77.903), (8.528, 13.333)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1611253196930946</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A'], ['A', 'A:7/3', 'D', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb/5', 'Ab', 'Eb/3'], ['Eb', 'Eb:7/b7', 'Ab', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.30541, 13.723731), (18.117383, 23.411533)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(93.1817, 99.497528), (7.604557, 16.37009)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
